--- a/data/2020-05-09/texas.xlsx
+++ b/data/2020-05-09/texas.xlsx
@@ -8,41 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77324211-5F25-4956-96BA-79E9DCC822CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76BF31A0-A980-4438-B155-59EB6FC5B6C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17900" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
     <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
     <sheet name="RecoveredActive by County" sheetId="4" r:id="rId4"/>
-    <sheet name="Tests by day" sheetId="5" r:id="rId5"/>
-    <sheet name="Tests" sheetId="6" r:id="rId6"/>
+    <sheet name="Tests" sheetId="6" r:id="rId5"/>
+    <sheet name="Tests by day" sheetId="5" r:id="rId6"/>
     <sheet name="Hospitalizations" sheetId="7" r:id="rId7"/>
-    <sheet name="Cases by Age Group" sheetId="8" r:id="rId8"/>
-    <sheet name="Cases by Gender" sheetId="9" r:id="rId9"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId10"/>
-    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId11"/>
-    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId12"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId13"/>
+    <sheet name="Hospitalization by day" sheetId="14" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="8" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="9" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="322">
-  <si>
-    <t>COVID-19 Positive Cases and Fatalities by County as of 5/08 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="325">
+  <si>
+    <t>COVID-19 Positive Cases and Fatalities by County as of 5/09 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>Fatalities</t>
   </si>
   <si>
@@ -811,7 +809,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/08 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/09 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>Date</t>
@@ -835,7 +836,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/08 at 9:30AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/09 at 9:30AM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -847,10 +848,16 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 by County as of 5/07 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Testing and Positivity Rate over Time as of 5/08 at 10:45AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 by County as of 5/08 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Testing and Positivity Rate over Time as of 5/09 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>COVID-19
+Positive
+Test Rate
+over</t>
   </si>
   <si>
     <t>Total
@@ -861,7 +868,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/08 at 9:30AM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/09 at 9:30AM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -882,7 +889,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 5/08 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 5/09 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -903,7 +910,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 5/08 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 5/09 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -958,10 +965,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          12,927</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 5/08 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          13,512</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 5/09 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -973,7 +980,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 5/08 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 5/09 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -994,20 +1001,25 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 5/08 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          453</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 5/08 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 5/08 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>COVID-19
-Positivity Rate</t>
+    <t>Age of Confirmed Fatalities as of 5/09 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          470</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 5/09 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 5/09 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Hospitalizations by Day as of 5/09 at 9:30AM CST</t>
   </si>
 </sst>
 </file>
@@ -1018,11 +1030,11 @@
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
-    <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="168" formatCode="##0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1044,13 +1056,6 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1121,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1149,14 +1154,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1166,12 +1183,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,10 +1321,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -1321,26 +1332,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>41</v>
@@ -1351,7 +1362,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>21</v>
@@ -1362,7 +1373,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
@@ -1373,7 +1384,7 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -1384,7 +1395,7 @@
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -1395,7 +1406,7 @@
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -1406,7 +1417,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>22</v>
@@ -1417,10 +1428,10 @@
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1428,7 +1439,7 @@
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -1439,7 +1450,7 @@
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
@@ -1450,10 +1461,10 @@
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
@@ -1461,7 +1472,7 @@
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -1472,7 +1483,7 @@
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>6</v>
@@ -1483,10 +1494,10 @@
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -1494,18 +1505,18 @@
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>1805</v>
+        <v>1835</v>
       </c>
       <c r="C17" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>6</v>
@@ -1516,7 +1527,7 @@
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1527,7 +1538,7 @@
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
@@ -1538,7 +1549,7 @@
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>76</v>
@@ -1549,29 +1560,29 @@
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="C22" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C23" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -1582,7 +1593,7 @@
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -1593,7 +1604,7 @@
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -1604,7 +1615,7 @@
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
         <v>38</v>
@@ -1615,7 +1626,7 @@
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
         <v>15</v>
@@ -1626,10 +1637,10 @@
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1637,10 +1648,10 @@
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1648,7 +1659,7 @@
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4">
         <v>36</v>
@@ -1659,7 +1670,7 @@
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>6</v>
@@ -1670,18 +1681,18 @@
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C33" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>7</v>
@@ -1692,7 +1703,7 @@
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4">
         <v>3</v>
@@ -1703,7 +1714,7 @@
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4">
         <v>17</v>
@@ -1714,7 +1725,7 @@
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4">
         <v>22</v>
@@ -1725,10 +1736,10 @@
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1736,7 +1747,7 @@
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4">
         <v>18</v>
@@ -1747,7 +1758,7 @@
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -1758,7 +1769,7 @@
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4">
         <v>3</v>
@@ -1769,7 +1780,7 @@
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -1780,7 +1791,7 @@
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -1791,7 +1802,7 @@
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
@@ -1802,18 +1813,18 @@
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="C45" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -1824,10 +1835,10 @@
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1835,7 +1846,7 @@
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4">
         <v>65</v>
@@ -1846,7 +1857,7 @@
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4">
         <v>3</v>
@@ -1857,7 +1868,7 @@
     </row>
     <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -1868,10 +1879,10 @@
     </row>
     <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1879,10 +1890,10 @@
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1890,18 +1901,18 @@
     </row>
     <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4">
         <v>2</v>
@@ -1912,7 +1923,7 @@
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -1923,7 +1934,7 @@
     </row>
     <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4">
         <v>2</v>
@@ -1934,7 +1945,7 @@
     </row>
     <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -1945,10 +1956,10 @@
     </row>
     <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -1956,18 +1967,18 @@
     </row>
     <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4">
-        <v>5120</v>
+        <v>5369</v>
       </c>
       <c r="C59" s="4">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4">
         <v>30</v>
@@ -1978,7 +1989,7 @@
     </row>
     <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4">
         <v>15</v>
@@ -1989,7 +2000,7 @@
     </row>
     <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4">
         <v>46</v>
@@ -2000,7 +2011,7 @@
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -2011,18 +2022,18 @@
     </row>
     <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4">
-        <v>872</v>
+        <v>902</v>
       </c>
       <c r="C64" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -2033,7 +2044,7 @@
     </row>
     <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -2044,7 +2055,7 @@
     </row>
     <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4">
         <v>25</v>
@@ -2055,10 +2066,10 @@
     </row>
     <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2066,7 +2077,7 @@
     </row>
     <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
@@ -2077,10 +2088,10 @@
     </row>
     <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="4">
         <v>4</v>
@@ -2088,7 +2099,7 @@
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -2099,21 +2110,21 @@
     </row>
     <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4">
-        <v>1190</v>
+        <v>1276</v>
       </c>
       <c r="C72" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C73" s="4">
         <v>11</v>
@@ -2121,7 +2132,7 @@
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4">
         <v>14</v>
@@ -2132,7 +2143,7 @@
     </row>
     <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4">
         <v>6</v>
@@ -2143,7 +2154,7 @@
     </row>
     <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4">
         <v>23</v>
@@ -2154,10 +2165,10 @@
     </row>
     <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -2165,7 +2176,7 @@
     </row>
     <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -2176,7 +2187,7 @@
     </row>
     <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4">
         <v>4</v>
@@ -2187,7 +2198,7 @@
     </row>
     <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -2198,18 +2209,18 @@
     </row>
     <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4">
-        <v>1332</v>
+        <v>1357</v>
       </c>
       <c r="C81" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4">
         <v>3</v>
@@ -2220,7 +2231,7 @@
     </row>
     <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4">
         <v>7</v>
@@ -2231,10 +2242,10 @@
     </row>
     <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2242,7 +2253,7 @@
     </row>
     <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4">
         <v>3</v>
@@ -2253,18 +2264,18 @@
     </row>
     <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C86" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4">
         <v>3</v>
@@ -2275,7 +2286,7 @@
     </row>
     <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4">
         <v>4</v>
@@ -2286,7 +2297,7 @@
     </row>
     <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -2297,7 +2308,7 @@
     </row>
     <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4">
         <v>7</v>
@@ -2308,10 +2319,10 @@
     </row>
     <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C91" s="4">
         <v>2</v>
@@ -2319,7 +2330,7 @@
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4">
         <v>73</v>
@@ -2330,10 +2341,10 @@
     </row>
     <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -2341,7 +2352,7 @@
     </row>
     <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4">
         <v>117</v>
@@ -2352,10 +2363,10 @@
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2363,7 +2374,7 @@
     </row>
     <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="4">
         <v>92</v>
@@ -2374,7 +2385,7 @@
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="4">
         <v>37</v>
@@ -2385,7 +2396,7 @@
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -2396,7 +2407,7 @@
     </row>
     <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4">
         <v>6</v>
@@ -2407,7 +2418,7 @@
     </row>
     <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="4">
         <v>12</v>
@@ -2418,7 +2429,7 @@
     </row>
     <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="4">
         <v>0</v>
@@ -2429,7 +2440,7 @@
     </row>
     <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="4">
         <v>113</v>
@@ -2440,18 +2451,18 @@
     </row>
     <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="4">
-        <v>7377</v>
+        <v>7594</v>
       </c>
       <c r="C103" s="4">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="4">
         <v>180</v>
@@ -2462,10 +2473,10 @@
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2473,7 +2484,7 @@
     </row>
     <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -2484,18 +2495,18 @@
     </row>
     <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="4">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C107" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="4">
         <v>1</v>
@@ -2506,7 +2517,7 @@
     </row>
     <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="4">
         <v>36</v>
@@ -2517,10 +2528,10 @@
     </row>
     <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="4">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C110" s="4">
         <v>7</v>
@@ -2528,7 +2539,7 @@
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="4">
         <v>19</v>
@@ -2539,7 +2550,7 @@
     </row>
     <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="4">
         <v>20</v>
@@ -2550,7 +2561,7 @@
     </row>
     <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="4">
         <v>19</v>
@@ -2561,7 +2572,7 @@
     </row>
     <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="4">
         <v>7</v>
@@ -2572,7 +2583,7 @@
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="4">
         <v>10</v>
@@ -2583,7 +2594,7 @@
     </row>
     <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="4">
         <v>6</v>
@@ -2594,7 +2605,7 @@
     </row>
     <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="4">
         <v>0</v>
@@ -2605,10 +2616,10 @@
     </row>
     <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C118" s="4">
         <v>3</v>
@@ -2616,10 +2627,10 @@
     </row>
     <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2627,7 +2638,7 @@
     </row>
     <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="4">
         <v>0</v>
@@ -2638,7 +2649,7 @@
     </row>
     <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="4">
         <v>4</v>
@@ -2649,7 +2660,7 @@
     </row>
     <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="4">
         <v>14</v>
@@ -2660,7 +2671,7 @@
     </row>
     <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="4">
         <v>19</v>
@@ -2671,7 +2682,7 @@
     </row>
     <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="4">
         <v>0</v>
@@ -2682,10 +2693,10 @@
     </row>
     <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="4">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C125" s="4">
         <v>25</v>
@@ -2693,7 +2704,7 @@
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="4">
         <v>3</v>
@@ -2704,10 +2715,10 @@
     </row>
     <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2715,10 +2726,10 @@
     </row>
     <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2726,10 +2737,10 @@
     </row>
     <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2737,7 +2748,7 @@
     </row>
     <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="4">
         <v>3</v>
@@ -2748,10 +2759,10 @@
     </row>
     <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="4">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C131" s="4">
         <v>1</v>
@@ -2759,10 +2770,10 @@
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2770,7 +2781,7 @@
     </row>
     <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="4">
         <v>0</v>
@@ -2781,7 +2792,7 @@
     </row>
     <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="4">
         <v>0</v>
@@ -2792,10 +2803,10 @@
     </row>
     <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -2803,7 +2814,7 @@
     </row>
     <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="4">
         <v>1</v>
@@ -2814,7 +2825,7 @@
     </row>
     <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="4">
         <v>0</v>
@@ -2825,7 +2836,7 @@
     </row>
     <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="4">
         <v>0</v>
@@ -2836,7 +2847,7 @@
     </row>
     <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="4">
         <v>10</v>
@@ -2847,7 +2858,7 @@
     </row>
     <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="4">
         <v>1</v>
@@ -2858,10 +2869,10 @@
     </row>
     <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2869,7 +2880,7 @@
     </row>
     <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="4">
         <v>77</v>
@@ -2880,7 +2891,7 @@
     </row>
     <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="4">
         <v>5</v>
@@ -2891,10 +2902,10 @@
     </row>
     <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -2902,7 +2913,7 @@
     </row>
     <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="4">
         <v>6</v>
@@ -2913,10 +2924,10 @@
     </row>
     <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -2924,7 +2935,7 @@
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="4">
         <v>9</v>
@@ -2935,10 +2946,10 @@
     </row>
     <row r="148" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="4">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C148" s="4">
         <v>1</v>
@@ -2946,10 +2957,10 @@
     </row>
     <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -2957,7 +2968,7 @@
     </row>
     <row r="150" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="4">
         <v>2</v>
@@ -2968,7 +2979,7 @@
     </row>
     <row r="151" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="4">
         <v>5</v>
@@ -2979,7 +2990,7 @@
     </row>
     <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="4">
         <v>3</v>
@@ -2990,7 +3001,7 @@
     </row>
     <row r="153" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="4">
         <v>0</v>
@@ -3001,18 +3012,18 @@
     </row>
     <row r="154" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="4">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C154" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="4">
         <v>5</v>
@@ -3023,7 +3034,7 @@
     </row>
     <row r="156" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="4">
         <v>3</v>
@@ -3034,7 +3045,7 @@
     </row>
     <row r="157" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="4">
         <v>16</v>
@@ -3045,7 +3056,7 @@
     </row>
     <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="4">
         <v>3</v>
@@ -3056,7 +3067,7 @@
     </row>
     <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="4">
         <v>28</v>
@@ -3067,7 +3078,7 @@
     </row>
     <row r="160" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="4">
         <v>62</v>
@@ -3078,7 +3089,7 @@
     </row>
     <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="4">
         <v>26</v>
@@ -3089,7 +3100,7 @@
     </row>
     <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="4">
         <v>3</v>
@@ -3100,7 +3111,7 @@
     </row>
     <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="4">
         <v>94</v>
@@ -3111,7 +3122,7 @@
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="4">
         <v>0</v>
@@ -3122,7 +3133,7 @@
     </row>
     <row r="165" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="4">
         <v>22</v>
@@ -3133,7 +3144,7 @@
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="4">
         <v>0</v>
@@ -3144,21 +3155,21 @@
     </row>
     <row r="167" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C167" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3166,7 +3177,7 @@
     </row>
     <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="4">
         <v>0</v>
@@ -3177,7 +3188,7 @@
     </row>
     <row r="170" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="4">
         <v>1</v>
@@ -3188,7 +3199,7 @@
     </row>
     <row r="171" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="4">
         <v>9</v>
@@ -3199,29 +3210,29 @@
     </row>
     <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="4">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="C172" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="4">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C173" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="4">
         <v>9</v>
@@ -3232,7 +3243,7 @@
     </row>
     <row r="175" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="4">
         <v>1</v>
@@ -3243,7 +3254,7 @@
     </row>
     <row r="176" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="4">
         <v>202</v>
@@ -3254,7 +3265,7 @@
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="4">
         <v>36</v>
@@ -3265,7 +3276,7 @@
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="4">
         <v>4</v>
@@ -3276,7 +3287,7 @@
     </row>
     <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="4">
         <v>2</v>
@@ -3287,10 +3298,10 @@
     </row>
     <row r="180" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="4">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3298,7 +3309,7 @@
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="4">
         <v>29</v>
@@ -3309,7 +3320,7 @@
     </row>
     <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="4">
         <v>3</v>
@@ -3320,10 +3331,10 @@
     </row>
     <row r="183" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3331,7 +3342,7 @@
     </row>
     <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="4">
         <v>9</v>
@@ -3342,7 +3353,7 @@
     </row>
     <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="4">
         <v>138</v>
@@ -3353,10 +3364,10 @@
     </row>
     <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C186" s="4">
         <v>0</v>
@@ -3364,10 +3375,10 @@
     </row>
     <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3375,10 +3386,10 @@
     </row>
     <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3386,7 +3397,7 @@
     </row>
     <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="4">
         <v>35</v>
@@ -3397,10 +3408,10 @@
     </row>
     <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="4">
-        <v>1027</v>
+        <v>1101</v>
       </c>
       <c r="C190" s="4">
         <v>15</v>
@@ -3408,7 +3419,7 @@
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="4">
         <v>0</v>
@@ -3419,7 +3430,7 @@
     </row>
     <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="4">
         <v>2</v>
@@ -3430,10 +3441,10 @@
     </row>
     <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="4">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C193" s="4">
         <v>3</v>
@@ -3441,7 +3452,7 @@
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="4">
         <v>0</v>
@@ -3452,7 +3463,7 @@
     </row>
     <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="4">
         <v>0</v>
@@ -3463,7 +3474,7 @@
     </row>
     <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="4">
         <v>3</v>
@@ -3474,7 +3485,7 @@
     </row>
     <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="4">
         <v>1</v>
@@ -3485,7 +3496,7 @@
     </row>
     <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="4">
         <v>1</v>
@@ -3496,7 +3507,7 @@
     </row>
     <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="4">
         <v>2</v>
@@ -3507,7 +3518,7 @@
     </row>
     <row r="200" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="4">
         <v>5</v>
@@ -3518,7 +3529,7 @@
     </row>
     <row r="201" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="4">
         <v>100</v>
@@ -3529,7 +3540,7 @@
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="4">
         <v>2</v>
@@ -3540,7 +3551,7 @@
     </row>
     <row r="203" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="4">
         <v>40</v>
@@ -3551,7 +3562,7 @@
     </row>
     <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="4">
         <v>2</v>
@@ -3562,7 +3573,7 @@
     </row>
     <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="4">
         <v>21</v>
@@ -3573,7 +3584,7 @@
     </row>
     <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="4">
         <v>10</v>
@@ -3584,10 +3595,10 @@
     </row>
     <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3595,7 +3606,7 @@
     </row>
     <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="4">
         <v>0</v>
@@ -3606,7 +3617,7 @@
     </row>
     <row r="209" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="4">
         <v>0</v>
@@ -3617,7 +3628,7 @@
     </row>
     <row r="210" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="4">
         <v>2</v>
@@ -3628,7 +3639,7 @@
     </row>
     <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="4">
         <v>1</v>
@@ -3639,7 +3650,7 @@
     </row>
     <row r="212" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="4">
         <v>149</v>
@@ -3650,7 +3661,7 @@
     </row>
     <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="4">
         <v>20</v>
@@ -3661,7 +3672,7 @@
     </row>
     <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="4">
         <v>170</v>
@@ -3672,7 +3683,7 @@
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="4">
         <v>0</v>
@@ -3683,7 +3694,7 @@
     </row>
     <row r="216" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="4">
         <v>14</v>
@@ -3694,7 +3705,7 @@
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="4">
         <v>1</v>
@@ -3705,7 +3716,7 @@
     </row>
     <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="4">
         <v>0</v>
@@ -3716,7 +3727,7 @@
     </row>
     <row r="219" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="4">
         <v>0</v>
@@ -3727,7 +3738,7 @@
     </row>
     <row r="220" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="4">
         <v>0</v>
@@ -3738,7 +3749,7 @@
     </row>
     <row r="221" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="4">
         <v>11</v>
@@ -3749,21 +3760,21 @@
     </row>
     <row r="222" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="4">
-        <v>2956</v>
+        <v>3127</v>
       </c>
       <c r="C222" s="4">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C223" s="4">
         <v>6</v>
@@ -3771,7 +3782,7 @@
     </row>
     <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="4">
         <v>0</v>
@@ -3782,7 +3793,7 @@
     </row>
     <row r="225" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="4">
         <v>12</v>
@@ -3793,7 +3804,7 @@
     </row>
     <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="4">
         <v>0</v>
@@ -3804,7 +3815,7 @@
     </row>
     <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="4">
         <v>29</v>
@@ -3815,7 +3826,7 @@
     </row>
     <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="4">
         <v>59</v>
@@ -3826,18 +3837,18 @@
     </row>
     <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="4">
-        <v>2002</v>
+        <v>2071</v>
       </c>
       <c r="C229" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="4">
         <v>11</v>
@@ -3848,7 +3859,7 @@
     </row>
     <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="4">
         <v>7</v>
@@ -3859,7 +3870,7 @@
     </row>
     <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="4">
         <v>17</v>
@@ -3870,7 +3881,7 @@
     </row>
     <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="4">
         <v>0</v>
@@ -3881,7 +3892,7 @@
     </row>
     <row r="234" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="4">
         <v>6</v>
@@ -3892,7 +3903,7 @@
     </row>
     <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="4">
         <v>13</v>
@@ -3903,7 +3914,7 @@
     </row>
     <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="4">
         <v>18</v>
@@ -3914,10 +3925,10 @@
     </row>
     <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C237" s="4">
         <v>5</v>
@@ -3925,10 +3936,10 @@
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="4">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C238" s="4">
         <v>2</v>
@@ -3936,10 +3947,10 @@
     </row>
     <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -3947,7 +3958,7 @@
     </row>
     <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="4">
         <v>0</v>
@@ -3958,10 +3969,10 @@
     </row>
     <row r="241" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="4">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C241" s="4">
         <v>18</v>
@@ -3969,10 +3980,10 @@
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="4">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C242" s="4">
         <v>17</v>
@@ -3980,7 +3991,7 @@
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="4">
         <v>41</v>
@@ -3991,7 +4002,7 @@
     </row>
     <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="4">
         <v>13</v>
@@ -4002,10 +4013,10 @@
     </row>
     <row r="245" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4013,7 +4024,7 @@
     </row>
     <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="4">
         <v>2</v>
@@ -4024,7 +4035,7 @@
     </row>
     <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="4">
         <v>14</v>
@@ -4035,10 +4046,10 @@
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="4">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C248" s="4">
         <v>12</v>
@@ -4046,7 +4057,7 @@
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="4">
         <v>34</v>
@@ -4057,7 +4068,7 @@
     </row>
     <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="4">
         <v>3</v>
@@ -4068,10 +4079,10 @@
     </row>
     <row r="251" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C251" s="4">
         <v>2</v>
@@ -4079,7 +4090,7 @@
     </row>
     <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="4">
         <v>13</v>
@@ -4090,7 +4101,7 @@
     </row>
     <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="4">
         <v>2</v>
@@ -4101,7 +4112,7 @@
     </row>
     <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="4">
         <v>4</v>
@@ -4112,7 +4123,7 @@
     </row>
     <row r="255" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="4">
         <v>7</v>
@@ -4123,10 +4134,10 @@
     </row>
     <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4134,13 +4145,13 @@
     </row>
     <row r="257" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C257" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -4153,16 +4164,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="9">
+        <v>6328</v>
+      </c>
+      <c r="C3" s="15">
+        <f>B3/B$6</f>
+        <v>0.46832445233866193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6912</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <v>0.51154529307282415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="9">
+        <v>272</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" si="0"/>
+        <v>2.0130254588513915E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="9">
+        <v>13512</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4170,101 +4289,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" s="9">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C3" s="15">
         <f>B3/B$9</f>
-        <v>3.6048580490446354E-2</v>
+        <v>3.5449970396684426E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B4" s="9">
-        <v>1981</v>
+        <v>2049</v>
       </c>
       <c r="C4" s="15">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.15324514581882881</v>
+        <v>0.15164298401420959</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B5" s="9">
-        <v>4820</v>
+        <v>5262</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>0.37286299992264255</v>
+        <v>0.38943161634103018</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B6" s="9">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>6.8848147288620718E-3</v>
+        <v>6.7347542924807583E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" s="9">
-        <v>3734</v>
+        <v>3785</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>0.28885278873675252</v>
+        <v>0.28012137359384254</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" s="9">
-        <v>1837</v>
+        <v>1846</v>
       </c>
       <c r="C8" s="15">
         <f t="shared" si="0"/>
-        <v>0.14210567030246771</v>
+        <v>0.13661930136175252</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="9">
-        <v>12927</v>
+        <v>13512</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" si="0"/>
@@ -4272,18 +4391,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4296,44 +4415,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -4345,7 +4464,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -4357,142 +4476,142 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>4.4150110375275938E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B6" s="10">
         <v>10</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>2.2075055187637971E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B7" s="10">
         <v>9</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>1.9867549668874173E-2</v>
+        <v>1.9148936170212766E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B8" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="15">
         <f t="shared" si="0"/>
-        <v>4.4150110375275942E-2</v>
+        <v>4.4680851063829789E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B9" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" si="0"/>
-        <v>0.10375275938189846</v>
+        <v>0.10638297872340426</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B10" s="10">
         <v>41</v>
       </c>
       <c r="C10" s="15">
         <f t="shared" si="0"/>
-        <v>9.0507726269315678E-2</v>
+        <v>8.723404255319149E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B11" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" si="0"/>
-        <v>0.12582781456953643</v>
+        <v>0.12340425531914893</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B12" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="15">
         <f t="shared" si="0"/>
-        <v>9.4922737306843266E-2</v>
+        <v>9.3617021276595741E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B13" s="10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="15">
         <f t="shared" si="0"/>
-        <v>9.2715231788079472E-2</v>
+        <v>9.3617021276595741E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B14" s="10">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C14" s="15">
         <f t="shared" si="0"/>
-        <v>0.39735099337748342</v>
+        <v>0.40212765957446811</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="0"/>
-        <v>4.4150110375275938E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="10">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="C16" s="15">
         <f t="shared" si="0"/>
@@ -4500,18 +4619,18 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4524,83 +4643,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B3" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C3" s="15">
         <f>B3/B$6</f>
-        <v>0.39514348785871967</v>
+        <v>0.39148936170212767</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" s="10">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C4" s="15">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.5342163355408388</v>
+        <v>0.54255319148936165</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>7.0640176600441501E-2</v>
+        <v>6.5957446808510636E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="10">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
@@ -4608,18 +4727,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4632,119 +4751,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" s="10">
         <v>6</v>
       </c>
       <c r="C3" s="15">
         <f>B3/B$9</f>
-        <v>1.3245033112582781E-2</v>
+        <v>1.276595744680851E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B4" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="15">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.13686534216335541</v>
+        <v>0.13404255319148936</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B5" s="10">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>0.2185430463576159</v>
+        <v>0.2404255319148936</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>2.2075055187637969E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>0.37527593818984545</v>
+        <v>0.36382978723404258</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" s="10">
         <v>115</v>
       </c>
       <c r="C8" s="15">
         <f t="shared" si="0"/>
-        <v>0.25386313465783666</v>
+        <v>0.24468085106382978</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="10">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" si="0"/>
@@ -4752,18 +4871,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4778,15 +4897,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -4795,60 +4914,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43895</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="B4" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -4856,7 +4967,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -4865,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -4873,7 +4984,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
@@ -4890,16 +5001,16 @@
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B7" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -4907,16 +5018,16 @@
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B8" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -4924,10 +5035,10 @@
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B9" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -4941,16 +5052,16 @@
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B10" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -4958,7 +5069,7 @@
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B11" s="4">
         <v>23</v>
@@ -4967,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4975,7 +5086,7 @@
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B12" s="4">
         <v>23</v>
@@ -4992,16 +5103,16 @@
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B13" s="4">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -5009,7 +5120,7 @@
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B14" s="4">
         <v>57</v>
@@ -5018,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -5026,33 +5137,33 @@
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B15" s="4">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B16" s="4">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -5060,16 +5171,16 @@
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B17" s="4">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -5077,50 +5188,50 @@
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B18" s="4">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B19" s="4">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4">
         <v>6</v>
       </c>
       <c r="D19" s="4">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B20" s="4">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
       </c>
       <c r="D20" s="4">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -5128,50 +5239,50 @@
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B21" s="4">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="C21" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" s="4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B22" s="4">
-        <v>712</v>
+        <v>287</v>
       </c>
       <c r="C22" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="E22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B23" s="4">
-        <v>975</v>
+        <v>712</v>
       </c>
       <c r="C23" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="E23" s="4">
         <v>3</v>
@@ -5179,220 +5290,220 @@
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B24" s="4">
-        <v>1394</v>
+        <v>975</v>
       </c>
       <c r="C24" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="E24" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B25" s="4">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="C25" s="4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="E25" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B26" s="4">
-        <v>2048</v>
+        <v>1731</v>
       </c>
       <c r="C26" s="4">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E26" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B27" s="4">
-        <v>2552</v>
+        <v>2048</v>
       </c>
       <c r="C27" s="4">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="E27" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B28" s="4">
-        <v>2874</v>
+        <v>2552</v>
       </c>
       <c r="C28" s="4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E28" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B29" s="4">
-        <v>3266</v>
+        <v>2874</v>
       </c>
       <c r="C29" s="4">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E29" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B30" s="4">
-        <v>3996</v>
+        <v>3266</v>
       </c>
       <c r="C30" s="4">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="E30" s="4">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B31" s="4">
-        <v>4665</v>
+        <v>3996</v>
       </c>
       <c r="C31" s="4">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D31" s="4">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="E31" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B32" s="4">
-        <v>5324</v>
+        <v>4665</v>
       </c>
       <c r="C32" s="4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D32" s="4">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="E32" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B33" s="4">
-        <v>6112</v>
+        <v>5324</v>
       </c>
       <c r="C33" s="4">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4">
-        <v>788</v>
+        <v>659</v>
       </c>
       <c r="E33" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B34" s="4">
-        <v>6793</v>
+        <v>6112</v>
       </c>
       <c r="C34" s="4">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D34" s="4">
-        <v>681</v>
+        <v>788</v>
       </c>
       <c r="E34" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B35" s="4">
-        <v>7273</v>
+        <v>6793</v>
       </c>
       <c r="C35" s="4">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="E35" s="4">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B36" s="4">
-        <v>8261</v>
+        <v>7273</v>
       </c>
       <c r="C36" s="4">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D36" s="4">
-        <v>988</v>
+        <v>480</v>
       </c>
       <c r="E36" s="4">
         <v>15</v>
@@ -5400,534 +5511,569 @@
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B37" s="4">
-        <v>9353</v>
+        <v>8261</v>
       </c>
       <c r="C37" s="4">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D37" s="4">
-        <v>1092</v>
+        <v>988</v>
       </c>
       <c r="E37" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B38" s="4">
-        <v>10230</v>
+        <v>9353</v>
       </c>
       <c r="C38" s="4">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D38" s="4">
-        <v>877</v>
+        <v>1092</v>
       </c>
       <c r="E38" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B39" s="4">
-        <v>11671</v>
+        <v>10230</v>
       </c>
       <c r="C39" s="4">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D39" s="4">
-        <v>1441</v>
+        <v>877</v>
       </c>
       <c r="E39" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B40" s="4">
-        <v>12561</v>
+        <v>11671</v>
       </c>
       <c r="C40" s="4">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D40" s="4">
-        <v>890</v>
+        <v>1441</v>
       </c>
       <c r="E40" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B41" s="4">
-        <v>13484</v>
+        <v>12561</v>
       </c>
       <c r="C41" s="4">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D41" s="4">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="E41" s="4">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B42" s="4">
-        <v>13906</v>
+        <v>13484</v>
       </c>
       <c r="C42" s="4">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D42" s="4">
-        <v>422</v>
+        <v>923</v>
       </c>
       <c r="E42" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B43" s="4">
-        <v>14624</v>
+        <v>13906</v>
       </c>
       <c r="C43" s="4">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D43" s="4">
-        <v>718</v>
+        <v>422</v>
       </c>
       <c r="E43" s="4">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B44" s="4">
-        <v>15492</v>
+        <v>14624</v>
       </c>
       <c r="C44" s="4">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="D44" s="4">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="E44" s="4">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B45" s="4">
-        <v>16455</v>
+        <v>15492</v>
       </c>
       <c r="C45" s="4">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D45" s="4">
-        <v>963</v>
+        <v>868</v>
       </c>
       <c r="E45" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B46" s="4">
-        <v>17371</v>
+        <v>16455</v>
       </c>
       <c r="C46" s="4">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="D46" s="4">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="E46" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B47" s="4">
-        <v>18260</v>
+        <v>17371</v>
       </c>
       <c r="C47" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D47" s="4">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="E47" s="4">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B48" s="4">
-        <v>18923</v>
+        <v>18260</v>
       </c>
       <c r="C48" s="4">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D48" s="4">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="E48" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B49" s="4">
-        <v>19458</v>
+        <v>18923</v>
       </c>
       <c r="C49" s="4">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D49" s="4">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="E49" s="4">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B50" s="4">
-        <v>20196</v>
+        <v>19458</v>
       </c>
       <c r="C50" s="4">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D50" s="4">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="E50" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B51" s="4">
-        <v>21069</v>
+        <v>20196</v>
       </c>
       <c r="C51" s="4">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="D51" s="4">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="E51" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B52" s="4">
-        <v>21944</v>
+        <v>21069</v>
       </c>
       <c r="C52" s="4">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="D52" s="4">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E52" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B53" s="4">
-        <v>22806</v>
+        <v>21944</v>
       </c>
       <c r="C53" s="4">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D53" s="4">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="E53" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B54" s="4">
-        <v>23773</v>
+        <v>22806</v>
       </c>
       <c r="C54" s="4">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="D54" s="4">
-        <v>967</v>
+        <v>862</v>
       </c>
       <c r="E54" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B55" s="4">
-        <v>24631</v>
+        <v>23773</v>
       </c>
       <c r="C55" s="4">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D55" s="4">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="E55" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B56" s="4">
-        <v>25297</v>
+        <v>24631</v>
       </c>
       <c r="C56" s="4">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="D56" s="4">
-        <v>666</v>
+        <v>858</v>
       </c>
       <c r="E56" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B57" s="4">
-        <v>26171</v>
+        <v>25297</v>
       </c>
       <c r="C57" s="4">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="D57" s="4">
-        <v>874</v>
+        <v>666</v>
       </c>
       <c r="E57" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B58" s="4">
-        <v>27054</v>
+        <v>26171</v>
       </c>
       <c r="C58" s="4">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D58" s="4">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="E58" s="4">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B59" s="4">
-        <v>28087</v>
+        <v>27054</v>
       </c>
       <c r="C59" s="4">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="D59" s="4">
-        <v>1033</v>
+        <v>883</v>
       </c>
       <c r="E59" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B60" s="4">
-        <v>29229</v>
+        <v>28087</v>
       </c>
       <c r="C60" s="4">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="D60" s="4">
-        <v>1142</v>
+        <v>1033</v>
       </c>
       <c r="E60" s="4">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B61" s="4">
-        <v>30522</v>
+        <v>29229</v>
       </c>
       <c r="C61" s="4">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="D61" s="4">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="E61" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B62" s="4">
-        <v>31548</v>
+        <v>30522</v>
       </c>
       <c r="C62" s="4">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="D62" s="4">
-        <v>1026</v>
+        <v>1293</v>
       </c>
       <c r="E62" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B63" s="4">
-        <v>32332</v>
+        <v>31548</v>
       </c>
       <c r="C63" s="4">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="D63" s="4">
-        <v>784</v>
+        <v>1026</v>
       </c>
       <c r="E63" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B64" s="4">
-        <v>33369</v>
+        <v>32332</v>
       </c>
       <c r="C64" s="4">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="D64" s="4">
-        <v>1037</v>
+        <v>784</v>
       </c>
       <c r="E64" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B65" s="4">
-        <v>34422</v>
+        <v>33369</v>
       </c>
       <c r="C65" s="4">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="D65" s="4">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="E65" s="4">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B66" s="4">
-        <v>35390</v>
+        <v>34422</v>
       </c>
       <c r="C66" s="4">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="D66" s="4">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="E66" s="4">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
+        <v>43958</v>
+      </c>
+      <c r="B67" s="4">
+        <v>35390</v>
+      </c>
+      <c r="C67" s="4">
+        <v>973</v>
+      </c>
+      <c r="D67" s="4">
+        <v>968</v>
+      </c>
+      <c r="E67" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
         <v>43959</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B68" s="4">
         <v>36609</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <v>1004</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D68" s="4">
         <v>1219</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <v>31</v>
       </c>
     </row>
+    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>43960</v>
+      </c>
+      <c r="B69" s="4">
+        <v>37860</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1049</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1251</v>
+      </c>
+      <c r="E69" s="4">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5940,21 +6086,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5966,17 +6112,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>19197</v>
+        <v>20141</v>
       </c>
       <c r="B3" s="7">
-        <v>16408</v>
+        <v>16670</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5993,24 +6139,24 @@
   <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6025,7 +6171,7 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>11</v>
@@ -6036,7 +6182,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>16</v>
@@ -6047,7 +6193,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>19</v>
@@ -6058,7 +6204,7 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -6069,7 +6215,7 @@
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -6080,7 +6226,7 @@
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -6091,7 +6237,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>11</v>
@@ -6102,7 +6248,7 @@
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>11</v>
@@ -6113,7 +6259,7 @@
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -6124,7 +6270,7 @@
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -6135,7 +6281,7 @@
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>34</v>
@@ -6146,7 +6292,7 @@
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -6157,7 +6303,7 @@
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>5</v>
@@ -6168,7 +6314,7 @@
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>123</v>
@@ -6179,7 +6325,7 @@
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>867</v>
@@ -6190,7 +6336,7 @@
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>5</v>
@@ -6201,7 +6347,7 @@
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -6212,7 +6358,7 @@
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
@@ -6223,7 +6369,7 @@
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>55</v>
@@ -6234,7 +6380,7 @@
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
         <v>319</v>
@@ -6245,7 +6391,7 @@
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
         <v>119</v>
@@ -6256,7 +6402,7 @@
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -6267,7 +6413,7 @@
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -6278,7 +6424,7 @@
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -6289,7 +6435,7 @@
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
         <v>17</v>
@@ -6300,7 +6446,7 @@
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -6311,7 +6457,7 @@
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
         <v>8</v>
@@ -6322,7 +6468,7 @@
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>
@@ -6333,7 +6479,7 @@
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4">
         <v>19</v>
@@ -6344,7 +6490,7 @@
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -6355,7 +6501,7 @@
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4">
         <v>247</v>
@@ -6366,7 +6512,7 @@
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>5</v>
@@ -6377,7 +6523,7 @@
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -6388,7 +6534,7 @@
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4">
         <v>9</v>
@@ -6399,7 +6545,7 @@
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4">
         <v>11</v>
@@ -6410,7 +6556,7 @@
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4">
         <v>39</v>
@@ -6421,7 +6567,7 @@
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
@@ -6432,7 +6578,7 @@
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -6443,7 +6589,7 @@
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4">
         <v>3</v>
@@ -6454,7 +6600,7 @@
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -6465,7 +6611,7 @@
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -6476,7 +6622,7 @@
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -6487,7 +6633,7 @@
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4">
         <v>569</v>
@@ -6498,7 +6644,7 @@
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -6509,7 +6655,7 @@
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4">
         <v>8</v>
@@ -6520,7 +6666,7 @@
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4">
         <v>44</v>
@@ -6531,7 +6677,7 @@
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4">
         <v>3</v>
@@ -6542,7 +6688,7 @@
     </row>
     <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -6553,18 +6699,18 @@
     </row>
     <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
       </c>
       <c r="C51" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4">
         <v>19</v>
@@ -6575,7 +6721,7 @@
     </row>
     <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -6586,7 +6732,7 @@
     </row>
     <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4">
         <v>2</v>
@@ -6597,7 +6743,7 @@
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -6608,7 +6754,7 @@
     </row>
     <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -6619,7 +6765,7 @@
     </row>
     <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -6630,7 +6776,7 @@
     </row>
     <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4">
         <v>2</v>
@@ -6641,7 +6787,7 @@
     </row>
     <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4">
         <v>2294</v>
@@ -6652,7 +6798,7 @@
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4">
         <v>14</v>
@@ -6663,7 +6809,7 @@
     </row>
     <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="4">
         <v>15</v>
@@ -6674,7 +6820,7 @@
     </row>
     <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -6685,7 +6831,7 @@
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4">
         <v>421</v>
@@ -6696,7 +6842,7 @@
     </row>
     <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="4">
         <v>12</v>
@@ -6707,7 +6853,7 @@
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -6718,7 +6864,7 @@
     </row>
     <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -6729,7 +6875,7 @@
     </row>
     <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4">
         <v>21</v>
@@ -6740,7 +6886,7 @@
     </row>
     <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -6751,7 +6897,7 @@
     </row>
     <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
@@ -6762,7 +6908,7 @@
     </row>
     <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4">
         <v>63</v>
@@ -6773,7 +6919,7 @@
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -6784,7 +6930,7 @@
     </row>
     <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="4">
         <v>91</v>
@@ -6795,7 +6941,7 @@
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4">
         <v>619</v>
@@ -6806,7 +6952,7 @@
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4">
         <v>10</v>
@@ -6817,7 +6963,7 @@
     </row>
     <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -6828,7 +6974,7 @@
     </row>
     <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4">
         <v>11</v>
@@ -6839,7 +6985,7 @@
     </row>
     <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4">
         <v>9</v>
@@ -6850,7 +6996,7 @@
     </row>
     <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -6861,7 +7007,7 @@
     </row>
     <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4">
         <v>2</v>
@@ -6872,7 +7018,7 @@
     </row>
     <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -6883,7 +7029,7 @@
     </row>
     <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4">
         <v>213</v>
@@ -6894,7 +7040,7 @@
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -6905,7 +7051,7 @@
     </row>
     <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4">
         <v>2</v>
@@ -6916,7 +7062,7 @@
     </row>
     <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -6927,7 +7073,7 @@
     </row>
     <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4">
         <v>2</v>
@@ -6938,7 +7084,7 @@
     </row>
     <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4">
         <v>394</v>
@@ -6949,7 +7095,7 @@
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
@@ -6960,7 +7106,7 @@
     </row>
     <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -6971,7 +7117,7 @@
     </row>
     <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -6982,7 +7128,7 @@
     </row>
     <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4">
         <v>5</v>
@@ -6993,7 +7139,7 @@
     </row>
     <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4">
         <v>3</v>
@@ -7004,7 +7150,7 @@
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4">
         <v>23</v>
@@ -7015,7 +7161,7 @@
     </row>
     <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4">
         <v>26</v>
@@ -7026,7 +7172,7 @@
     </row>
     <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4">
         <v>47</v>
@@ -7037,7 +7183,7 @@
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4">
         <v>5</v>
@@ -7048,7 +7194,7 @@
     </row>
     <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="4">
         <v>57</v>
@@ -7059,7 +7205,7 @@
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="4">
         <v>18</v>
@@ -7070,7 +7216,7 @@
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -7081,7 +7227,7 @@
     </row>
     <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -7092,7 +7238,7 @@
     </row>
     <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="4">
         <v>2</v>
@@ -7103,7 +7249,7 @@
     </row>
     <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="4">
         <v>0</v>
@@ -7114,7 +7260,7 @@
     </row>
     <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="4">
         <v>76</v>
@@ -7125,7 +7271,7 @@
     </row>
     <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="4">
         <v>2779</v>
@@ -7136,7 +7282,7 @@
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="4">
         <v>49</v>
@@ -7147,7 +7293,7 @@
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="4">
         <v>2</v>
@@ -7158,7 +7304,7 @@
     </row>
     <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -7169,7 +7315,7 @@
     </row>
     <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="4">
         <v>117</v>
@@ -7180,7 +7326,7 @@
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="4">
         <v>1</v>
@@ -7191,7 +7337,7 @@
     </row>
     <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="4">
         <v>18</v>
@@ -7202,7 +7348,7 @@
     </row>
     <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="4">
         <v>218</v>
@@ -7213,7 +7359,7 @@
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="4">
         <v>8</v>
@@ -7224,7 +7370,7 @@
     </row>
     <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="4">
         <v>15</v>
@@ -7235,7 +7381,7 @@
     </row>
     <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="4">
         <v>12</v>
@@ -7246,7 +7392,7 @@
     </row>
     <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="4">
         <v>4</v>
@@ -7257,7 +7403,7 @@
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="4">
         <v>3</v>
@@ -7268,7 +7414,7 @@
     </row>
     <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
@@ -7279,7 +7425,7 @@
     </row>
     <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="4">
         <v>0</v>
@@ -7290,7 +7436,7 @@
     </row>
     <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="4">
         <v>32</v>
@@ -7301,7 +7447,7 @@
     </row>
     <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="4">
         <v>8</v>
@@ -7312,7 +7458,7 @@
     </row>
     <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="4">
         <v>0</v>
@@ -7323,7 +7469,7 @@
     </row>
     <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="4">
         <v>3</v>
@@ -7334,7 +7480,7 @@
     </row>
     <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="4">
         <v>5</v>
@@ -7345,7 +7491,7 @@
     </row>
     <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="4">
         <v>8</v>
@@ -7356,7 +7502,7 @@
     </row>
     <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="4">
         <v>0</v>
@@ -7367,7 +7513,7 @@
     </row>
     <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="4">
         <v>179</v>
@@ -7378,7 +7524,7 @@
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="4">
         <v>1</v>
@@ -7389,7 +7535,7 @@
     </row>
     <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="4">
         <v>2</v>
@@ -7400,7 +7546,7 @@
     </row>
     <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="4">
         <v>43</v>
@@ -7411,7 +7557,7 @@
     </row>
     <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="4">
         <v>3</v>
@@ -7422,7 +7568,7 @@
     </row>
     <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="4">
         <v>3</v>
@@ -7433,7 +7579,7 @@
     </row>
     <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="4">
         <v>48</v>
@@ -7444,7 +7590,7 @@
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="4">
         <v>14</v>
@@ -7455,7 +7601,7 @@
     </row>
     <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="4">
         <v>0</v>
@@ -7466,7 +7612,7 @@
     </row>
     <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="4">
         <v>0</v>
@@ -7477,7 +7623,7 @@
     </row>
     <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="4">
         <v>4</v>
@@ -7488,7 +7634,7 @@
     </row>
     <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="4">
         <v>0</v>
@@ -7499,7 +7645,7 @@
     </row>
     <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="4">
         <v>0</v>
@@ -7510,7 +7656,7 @@
     </row>
     <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="4">
         <v>0</v>
@@ -7521,7 +7667,7 @@
     </row>
     <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="4">
         <v>5</v>
@@ -7532,7 +7678,7 @@
     </row>
     <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="4">
         <v>1</v>
@@ -7543,7 +7689,7 @@
     </row>
     <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="4">
         <v>7</v>
@@ -7554,7 +7700,7 @@
     </row>
     <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="4">
         <v>2</v>
@@ -7565,7 +7711,7 @@
     </row>
     <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="4">
         <v>2</v>
@@ -7576,7 +7722,7 @@
     </row>
     <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="4">
         <v>1</v>
@@ -7587,7 +7733,7 @@
     </row>
     <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="4">
         <v>4</v>
@@ -7598,7 +7744,7 @@
     </row>
     <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="4">
         <v>2</v>
@@ -7609,7 +7755,7 @@
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="4">
         <v>3</v>
@@ -7620,7 +7766,7 @@
     </row>
     <row r="148" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="4">
         <v>30</v>
@@ -7631,7 +7777,7 @@
     </row>
     <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="4">
         <v>5</v>
@@ -7642,7 +7788,7 @@
     </row>
     <row r="150" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="4">
         <v>0</v>
@@ -7653,7 +7799,7 @@
     </row>
     <row r="151" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="4">
         <v>5</v>
@@ -7664,7 +7810,7 @@
     </row>
     <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="4">
         <v>3</v>
@@ -7675,7 +7821,7 @@
     </row>
     <row r="153" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="4">
         <v>0</v>
@@ -7686,7 +7832,7 @@
     </row>
     <row r="154" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="4">
         <v>294</v>
@@ -7697,7 +7843,7 @@
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="4">
         <v>4</v>
@@ -7708,7 +7854,7 @@
     </row>
     <row r="156" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" s="4">
         <v>2</v>
@@ -7719,7 +7865,7 @@
     </row>
     <row r="157" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" s="4">
         <v>83</v>
@@ -7730,7 +7876,7 @@
     </row>
     <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158" s="4">
         <v>0</v>
@@ -7741,7 +7887,7 @@
     </row>
     <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="4">
         <v>2</v>
@@ -7752,7 +7898,7 @@
     </row>
     <row r="160" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="4">
         <v>5</v>
@@ -7763,7 +7909,7 @@
     </row>
     <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="4">
         <v>2</v>
@@ -7774,7 +7920,7 @@
     </row>
     <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="4">
         <v>1</v>
@@ -7785,7 +7931,7 @@
     </row>
     <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="4">
         <v>49</v>
@@ -7796,7 +7942,7 @@
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="4">
         <v>12</v>
@@ -7807,7 +7953,7 @@
     </row>
     <row r="165" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="4">
         <v>13</v>
@@ -7818,7 +7964,7 @@
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="4">
         <v>0</v>
@@ -7829,7 +7975,7 @@
     </row>
     <row r="167" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="4">
         <v>30</v>
@@ -7840,7 +7986,7 @@
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="4">
         <v>12</v>
@@ -7851,7 +7997,7 @@
     </row>
     <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="4">
         <v>0</v>
@@ -7862,7 +8008,7 @@
     </row>
     <row r="170" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="4">
         <v>1</v>
@@ -7873,7 +8019,7 @@
     </row>
     <row r="171" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="4">
         <v>4</v>
@@ -7884,7 +8030,7 @@
     </row>
     <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="4">
         <v>249</v>
@@ -7895,7 +8041,7 @@
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="4">
         <v>137</v>
@@ -7906,7 +8052,7 @@
     </row>
     <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="4">
         <v>4</v>
@@ -7917,7 +8063,7 @@
     </row>
     <row r="175" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="4">
         <v>1</v>
@@ -7928,7 +8074,7 @@
     </row>
     <row r="176" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="4">
         <v>86</v>
@@ -7939,7 +8085,7 @@
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="4">
         <v>22</v>
@@ -7950,7 +8096,7 @@
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="4">
         <v>2</v>
@@ -7961,7 +8107,7 @@
     </row>
     <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="4">
         <v>0</v>
@@ -7972,7 +8118,7 @@
     </row>
     <row r="180" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="4">
         <v>73</v>
@@ -7983,7 +8129,7 @@
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="4">
         <v>0</v>
@@ -7994,7 +8140,7 @@
     </row>
     <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="4">
         <v>2</v>
@@ -8005,7 +8151,7 @@
     </row>
     <row r="183" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="4">
         <v>52</v>
@@ -8016,7 +8162,7 @@
     </row>
     <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="4">
         <v>5</v>
@@ -8027,7 +8173,7 @@
     </row>
     <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="4">
         <v>49</v>
@@ -8038,7 +8184,7 @@
     </row>
     <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="4">
         <v>19</v>
@@ -8049,7 +8195,7 @@
     </row>
     <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="4">
         <v>2</v>
@@ -8060,7 +8206,7 @@
     </row>
     <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="4">
         <v>5</v>
@@ -8071,7 +8217,7 @@
     </row>
     <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="4">
         <v>11</v>
@@ -8082,7 +8228,7 @@
     </row>
     <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="4">
         <v>122</v>
@@ -8093,7 +8239,7 @@
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="4">
         <v>0</v>
@@ -8104,7 +8250,7 @@
     </row>
     <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="4">
         <v>2</v>
@@ -8115,7 +8261,7 @@
     </row>
     <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="4">
         <v>95</v>
@@ -8126,7 +8272,7 @@
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="4">
         <v>0</v>
@@ -8137,7 +8283,7 @@
     </row>
     <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="4">
         <v>0</v>
@@ -8148,7 +8294,7 @@
     </row>
     <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="4">
         <v>1</v>
@@ -8159,7 +8305,7 @@
     </row>
     <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="4">
         <v>0</v>
@@ -8170,7 +8316,7 @@
     </row>
     <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="4">
         <v>0</v>
@@ -8181,7 +8327,7 @@
     </row>
     <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="4">
         <v>2</v>
@@ -8192,7 +8338,7 @@
     </row>
     <row r="200" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="4">
         <v>2</v>
@@ -8203,7 +8349,7 @@
     </row>
     <row r="201" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="4">
         <v>40</v>
@@ -8214,7 +8360,7 @@
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="4">
         <v>0</v>
@@ -8225,7 +8371,7 @@
     </row>
     <row r="203" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="4">
         <v>24</v>
@@ -8236,7 +8382,7 @@
     </row>
     <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="4">
         <v>1</v>
@@ -8247,7 +8393,7 @@
     </row>
     <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="4">
         <v>7</v>
@@ -8258,7 +8404,7 @@
     </row>
     <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="4">
         <v>7</v>
@@ -8269,7 +8415,7 @@
     </row>
     <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="4">
         <v>10</v>
@@ -8280,7 +8426,7 @@
     </row>
     <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="4">
         <v>0</v>
@@ -8291,7 +8437,7 @@
     </row>
     <row r="209" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="4">
         <v>0</v>
@@ -8302,7 +8448,7 @@
     </row>
     <row r="210" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="4">
         <v>2</v>
@@ -8313,7 +8459,7 @@
     </row>
     <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="4">
         <v>0</v>
@@ -8324,7 +8470,7 @@
     </row>
     <row r="212" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="4">
         <v>70</v>
@@ -8335,7 +8481,7 @@
     </row>
     <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="4">
         <v>8</v>
@@ -8346,7 +8492,7 @@
     </row>
     <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="4">
         <v>109</v>
@@ -8357,7 +8503,7 @@
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="4">
         <v>0</v>
@@ -8368,7 +8514,7 @@
     </row>
     <row r="216" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="4">
         <v>7</v>
@@ -8379,7 +8525,7 @@
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="4">
         <v>1</v>
@@ -8390,7 +8536,7 @@
     </row>
     <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="4">
         <v>0</v>
@@ -8401,7 +8547,7 @@
     </row>
     <row r="219" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="4">
         <v>0</v>
@@ -8412,7 +8558,7 @@
     </row>
     <row r="220" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="4">
         <v>0</v>
@@ -8423,7 +8569,7 @@
     </row>
     <row r="221" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="4">
         <v>5</v>
@@ -8434,7 +8580,7 @@
     </row>
     <row r="222" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="4">
         <v>682</v>
@@ -8445,7 +8591,7 @@
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="4">
         <v>151</v>
@@ -8456,7 +8602,7 @@
     </row>
     <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="4">
         <v>0</v>
@@ -8467,7 +8613,7 @@
     </row>
     <row r="225" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="4">
         <v>9</v>
@@ -8478,7 +8624,7 @@
     </row>
     <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="4">
         <v>0</v>
@@ -8489,7 +8635,7 @@
     </row>
     <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="4">
         <v>10</v>
@@ -8500,7 +8646,7 @@
     </row>
     <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="4">
         <v>36</v>
@@ -8511,7 +8657,7 @@
     </row>
     <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="4">
         <v>659</v>
@@ -8522,7 +8668,7 @@
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="4">
         <v>6</v>
@@ -8533,7 +8679,7 @@
     </row>
     <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="4">
         <v>5</v>
@@ -8544,7 +8690,7 @@
     </row>
     <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="4">
         <v>10</v>
@@ -8555,7 +8701,7 @@
     </row>
     <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="4">
         <v>0</v>
@@ -8566,7 +8712,7 @@
     </row>
     <row r="234" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="4">
         <v>6</v>
@@ -8577,7 +8723,7 @@
     </row>
     <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="4">
         <v>11</v>
@@ -8588,7 +8734,7 @@
     </row>
     <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="4">
         <v>10</v>
@@ -8599,7 +8745,7 @@
     </row>
     <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="4">
         <v>89</v>
@@ -8610,7 +8756,7 @@
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="4">
         <v>110</v>
@@ -8621,7 +8767,7 @@
     </row>
     <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="4">
         <v>22</v>
@@ -8632,7 +8778,7 @@
     </row>
     <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="4">
         <v>0</v>
@@ -8643,7 +8789,7 @@
     </row>
     <row r="241" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="4">
         <v>32</v>
@@ -8654,7 +8800,7 @@
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="4">
         <v>182</v>
@@ -8665,7 +8811,7 @@
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="4">
         <v>31</v>
@@ -8676,7 +8822,7 @@
     </row>
     <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="4">
         <v>1</v>
@@ -8687,7 +8833,7 @@
     </row>
     <row r="245" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="4">
         <v>51</v>
@@ -8698,7 +8844,7 @@
     </row>
     <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="4">
         <v>1</v>
@@ -8709,7 +8855,7 @@
     </row>
     <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="4">
         <v>8</v>
@@ -8720,7 +8866,7 @@
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="4">
         <v>205</v>
@@ -8731,7 +8877,7 @@
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="4">
         <v>20</v>
@@ -8742,7 +8888,7 @@
     </row>
     <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="4">
         <v>2</v>
@@ -8753,18 +8899,18 @@
     </row>
     <row r="251" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="4">
         <v>10</v>
       </c>
       <c r="C251" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="4">
         <v>5</v>
@@ -8775,7 +8921,7 @@
     </row>
     <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="4">
         <v>1</v>
@@ -8786,7 +8932,7 @@
     </row>
     <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="4">
         <v>3</v>
@@ -8797,7 +8943,7 @@
     </row>
     <row r="255" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="4">
         <v>6</v>
@@ -8808,7 +8954,7 @@
     </row>
     <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="4">
         <v>1</v>
@@ -8818,11 +8964,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B258" s="13"/>
-      <c r="C258" s="13"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8835,501 +8981,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43925</v>
-      </c>
-      <c r="B3" s="15">
-        <v>9.3028117487000003E-2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>63751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>43926</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0.11178618289999999</v>
-      </c>
-      <c r="C4" s="7">
-        <v>70938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>43927</v>
-      </c>
-      <c r="B5" s="15">
-        <v>9.4582792398999999E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>85357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>43928</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.10455481467</v>
-      </c>
-      <c r="C6" s="7">
-        <v>88649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>43929</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0.10285438469000001</v>
-      </c>
-      <c r="C7" s="7">
-        <v>96258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>43930</v>
-      </c>
-      <c r="B8" s="15">
-        <v>9.7399245583000005E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>106134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>43931</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.10656161941</v>
-      </c>
-      <c r="C9" s="7">
-        <v>115918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>43932</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0.11630204658</v>
-      </c>
-      <c r="C10" s="7">
-        <v>120533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>43933</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0.15846004693999999</v>
-      </c>
-      <c r="C11" s="7">
-        <v>124553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>43934</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0.12663481167000001</v>
-      </c>
-      <c r="C12" s="7">
-        <v>133226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>43935</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0.10498117866999999</v>
-      </c>
-      <c r="C13" s="7">
-        <v>146467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>43936</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0.11520273229000001</v>
-      </c>
-      <c r="C14" s="7">
-        <v>151810</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>43937</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0.11222407281000001</v>
-      </c>
-      <c r="C15" s="7">
-        <v>158547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>43938</v>
-      </c>
-      <c r="B16" s="15">
-        <v>9.8157255677999988E-2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>169536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>43939</v>
-      </c>
-      <c r="B17" s="15">
-        <v>9.2404132647000009E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>176239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>43940</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0.10138630668</v>
-      </c>
-      <c r="C18" s="7">
-        <v>182710</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>43941</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.11004621304000001</v>
-      </c>
-      <c r="C19" s="7">
-        <v>190394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>43942</v>
-      </c>
-      <c r="B20" s="15">
-        <v>8.7779208420000004E-2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>205399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>43943</v>
-      </c>
-      <c r="B21" s="15">
-        <v>7.9229342674999995E-2</v>
-      </c>
-      <c r="C21" s="7">
-        <v>216783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>43944</v>
-      </c>
-      <c r="B22" s="15">
-        <v>8.2334089517999989E-2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>225078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>43945</v>
-      </c>
-      <c r="B23" s="15">
-        <v>6.8558846595E-2</v>
-      </c>
-      <c r="C23" s="7">
-        <v>242547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>43946</v>
-      </c>
-      <c r="B24" s="15">
-        <v>6.0544778169000002E-2</v>
-      </c>
-      <c r="C24" s="7">
-        <v>262816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>43947</v>
-      </c>
-      <c r="B25" s="15">
-        <v>6.0413187428999995E-2</v>
-      </c>
-      <c r="C25" s="7">
-        <v>276021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>43948</v>
-      </c>
-      <c r="B26" s="15">
-        <v>5.9928569749999994E-2</v>
-      </c>
-      <c r="C26" s="7">
-        <v>290517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>43949</v>
-      </c>
-      <c r="B27" s="15">
-        <v>6.1027978133999995E-2</v>
-      </c>
-      <c r="C27" s="7">
-        <v>300384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>43950</v>
-      </c>
-      <c r="B28" s="15">
-        <v>5.6960049937999996E-2</v>
-      </c>
-      <c r="C28" s="7">
-        <v>314790</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>43951</v>
-      </c>
-      <c r="B29" s="15">
-        <v>6.0180278737000006E-2</v>
-      </c>
-      <c r="C29" s="7">
-        <v>330300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>43952</v>
-      </c>
-      <c r="B30" s="15">
-        <v>6.1331624681000001E-2</v>
-      </c>
-      <c r="C30" s="7">
-        <v>351775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>43953</v>
-      </c>
-      <c r="B31" s="15">
-        <v>5.6304777925000001E-2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>380648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>43954</v>
-      </c>
-      <c r="B32" s="15">
-        <v>6.2483132253000007E-2</v>
-      </c>
-      <c r="C32" s="7">
-        <v>390560</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>43955</v>
-      </c>
-      <c r="B33" s="15">
-        <v>5.7571906479999997E-2</v>
-      </c>
-      <c r="C33" s="7">
-        <v>407398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>43956</v>
-      </c>
-      <c r="B34" s="15">
-        <v>5.6173278776E-2</v>
-      </c>
-      <c r="C34" s="7">
-        <v>427210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>43957</v>
-      </c>
-      <c r="B35" s="15">
-        <v>5.8312929177999996E-2</v>
-      </c>
-      <c r="C35" s="7">
-        <v>438938</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>43958</v>
-      </c>
-      <c r="B36" s="15">
-        <v>5.8488571382999996E-2</v>
-      </c>
-      <c r="C36" s="7">
-        <v>455162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>43959</v>
-      </c>
-      <c r="B37" s="15">
-        <v>5.8878437566999994E-2</v>
-      </c>
-      <c r="C37" s="7">
-        <v>477118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A39:C39"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" s="7">
-        <v>15470</v>
+        <v>15942</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B4" s="7">
-        <v>461648</v>
+        <v>473352</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B5" s="7">
-        <v>477118</v>
+        <v>489294</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="13"/>
+      <c r="A7" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9341,81 +9050,527 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B3" s="11">
+        <v>9.3028117487000003E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>63751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.11178618289999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>70938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B5" s="11">
+        <v>9.4582792398999999E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>85357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.10455481467</v>
+      </c>
+      <c r="C6" s="7">
+        <v>88649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.10285438469000001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>96258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43930</v>
+      </c>
+      <c r="B8" s="11">
+        <v>9.7399245583000005E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>106134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>43931</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.10656161941</v>
+      </c>
+      <c r="C9" s="7">
+        <v>115918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43932</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.11630204658</v>
+      </c>
+      <c r="C10" s="7">
+        <v>120533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>43933</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.15846004693999999</v>
+      </c>
+      <c r="C11" s="7">
+        <v>124553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>43934</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.12663481167000001</v>
+      </c>
+      <c r="C12" s="7">
+        <v>133226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>43935</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.10498117866999999</v>
+      </c>
+      <c r="C13" s="7">
+        <v>146467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43936</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.11520273229000001</v>
+      </c>
+      <c r="C14" s="7">
+        <v>151810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>43937</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.11222407281000001</v>
+      </c>
+      <c r="C15" s="7">
+        <v>158547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>43938</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9.8157255677999988E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>169536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>43939</v>
+      </c>
+      <c r="B17" s="11">
+        <v>9.2404132647000009E-2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>176239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43940</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.10138630668</v>
+      </c>
+      <c r="C18" s="7">
+        <v>182710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43941</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.11004621304000001</v>
+      </c>
+      <c r="C19" s="7">
+        <v>190394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43942</v>
+      </c>
+      <c r="B20" s="11">
+        <v>8.7779208420000004E-2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>205399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43943</v>
+      </c>
+      <c r="B21" s="11">
+        <v>7.9229342674999995E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>216783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43944</v>
+      </c>
+      <c r="B22" s="11">
+        <v>8.2334089517999989E-2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>225078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>43945</v>
+      </c>
+      <c r="B23" s="11">
+        <v>6.8558846595E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>242547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43946</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6.0544778169000002E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>262816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43947</v>
+      </c>
+      <c r="B25" s="11">
+        <v>6.0413187428999995E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>276021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5.9928569749999994E-2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>290517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B27" s="11">
+        <v>6.1027978133999995E-2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>300384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B28" s="11">
+        <v>5.6960049937999996E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>314790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>43951</v>
+      </c>
+      <c r="B29" s="11">
+        <v>6.0180278737000006E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>330300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B30" s="11">
+        <v>6.1331624681000001E-2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>351775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5.6304777925000001E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>380648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6.2483132253000007E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>390560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B33" s="11">
+        <v>5.7571906479999997E-2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>407398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>43956</v>
+      </c>
+      <c r="B34" s="11">
+        <v>5.6173278776E-2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>427210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>43957</v>
+      </c>
+      <c r="B35" s="11">
+        <v>5.8312929177999996E-2</v>
+      </c>
+      <c r="C35" s="7">
+        <v>438938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>43958</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5.8488571382999996E-2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>455162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>43959</v>
+      </c>
+      <c r="B37" s="11">
+        <v>5.8878437566999994E-2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>477118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>43960</v>
+      </c>
+      <c r="B38" s="11">
+        <v>6.7540452478692267E-2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>489294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A40:C40"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="7">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B4" s="7">
-        <v>56186</v>
+        <v>56525</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" s="7">
-        <v>17670</v>
+        <v>18548</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B6" s="7">
-        <v>1904</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B7" s="7">
-        <v>6131</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9428,202 +9583,527 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89F5E53-0A39-4705-B389-156B4768DD39}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="14"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>43925</v>
+      </c>
+      <c r="B3" s="7">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>43926</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>43927</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>43928</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>43929</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>43930</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43931</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>43932</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>43933</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>43934</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>43935</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>43936</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>43937</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>43938</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>43939</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>43940</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>43941</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>43942</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>43943</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>43944</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>43945</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>43946</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>43947</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>43948</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>43949</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>43950</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>43951</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>43953</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>43954</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>43955</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>43956</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>43957</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>43958</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>43959</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>43960</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1735</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A9" sqref="A9"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="15">
         <f>B3/B$16</f>
-        <v>2.5527964724994198E-3</v>
+        <v>2.5902901124925993E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4" s="9">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C4" s="15">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.1371547922951961E-2</v>
+        <v>1.1619301361752517E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B5" s="9">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>3.0014697919084087E-2</v>
+        <v>3.0269390171699231E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B6" s="9">
-        <v>2006</v>
+        <v>2128</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>0.15517908254041929</v>
+        <v>0.15748963883955003</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B7" s="9">
-        <v>2346</v>
+        <v>2452</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>0.18148062195404965</v>
+        <v>0.18146832445233865</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B8" s="9">
-        <v>2448</v>
+        <v>2557</v>
       </c>
       <c r="C8" s="15">
         <f t="shared" si="0"/>
-        <v>0.18937108377813877</v>
+        <v>0.18923919478981646</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B9" s="9">
-        <v>2379</v>
+        <v>2479</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" si="0"/>
-        <v>0.18403341842654908</v>
+        <v>0.18346654825340439</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B10" s="9">
-        <v>993</v>
+        <v>1039</v>
       </c>
       <c r="C10" s="15">
         <f t="shared" si="0"/>
-        <v>7.6815966581573455E-2</v>
+        <v>7.6894612196566015E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B11" s="9">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" si="0"/>
-        <v>5.6006807457259999E-2</v>
+        <v>5.5284191829484901E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B12" s="9">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="C12" s="15">
         <f t="shared" si="0"/>
-        <v>3.7982517212036819E-2</v>
+        <v>3.7670219064535229E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B13" s="9">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C13" s="15">
         <f t="shared" si="0"/>
-        <v>2.5527964724994197E-2</v>
+        <v>2.5384843102427473E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B14" s="9">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C14" s="15">
         <f t="shared" si="0"/>
-        <v>4.6491838787034889E-2</v>
+        <v>4.5589105979869746E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B15" s="9">
         <v>41</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="0"/>
-        <v>3.1716562234083701E-3</v>
+        <v>3.034339846062759E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="9">
-        <v>12927</v>
+        <v>13512</v>
       </c>
       <c r="C16" s="15">
         <f t="shared" si="0"/>
@@ -9631,18 +10111,18 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9653,112 +10133,4 @@
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="9">
-        <v>6136</v>
-      </c>
-      <c r="C3" s="15">
-        <f>B3/B$6</f>
-        <v>0.47466542894716485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="9">
-        <v>6520</v>
-      </c>
-      <c r="C4" s="15">
-        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.50437069699079451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="9">
-        <v>271</v>
-      </c>
-      <c r="C5" s="15">
-        <f t="shared" si="0"/>
-        <v>2.0963874062040689E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="9">
-        <v>12927</v>
-      </c>
-      <c r="C6" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>